--- a/biology/Botanique/Lactarius_salicis-reticulatae/Lactarius_salicis-reticulatae.xlsx
+++ b/biology/Botanique/Lactarius_salicis-reticulatae/Lactarius_salicis-reticulatae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lactarius salicis-reticulatae est une espèce de champignons de la famille des Russulaceae. Il est aussi connu sous le nom de lactaire des saules réticulés[1] ou lactaire salicicole[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lactarius salicis-reticulatae est une espèce de champignons de la famille des Russulaceae. Il est aussi connu sous le nom de lactaire des saules réticulés ou lactaire salicicole.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau du sporophore est de couleur jaune et a un diamètre compris entre 20 et 40 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau du sporophore est de couleur jaune et a un diamètre compris entre 20 et 40 mm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se développe sur des sols calcaires et dolomitiques entre 2000 et 2500 m d'altitude[1] à proximité de feuillus, en particulier les saules[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se développe sur des sols calcaires et dolomitiques entre 2000 et 2500 m d'altitude à proximité de feuillus, en particulier les saules.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Lactarius salicis-reticulatae Kühner[4].
-Lactarius salicis-reticulatae a pour synonyme[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lactarius salicis-reticulatae Kühner.
+Lactarius salicis-reticulatae a pour synonyme :
 Lactarius aspideoides Kühner</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude, publiée en avril 2024, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons ; classe cette espèce Lactarius salicis-reticulatae dans la catégorie CR (en danger critique)[5],[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude, publiée en avril 2024, menée conjointement en France par l’UICN, l’OFB, le MNHN et l’AdoniF sur le statut de conservation dans le pays de plus de 250 champignons ; classe cette espèce Lactarius salicis-reticulatae dans la catégorie CR (en danger critique),.
 </t>
         </is>
       </c>
